--- a/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_COMP_HIP_KNEE_04_01_2013_to_3_31_2016.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_COMP_HIP_KNEE_04_01_2013_to_3_31_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="19155" windowHeight="6210"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="19155" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COMP_HIP_KNEE" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="24" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F73" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2468,9 +2468,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3794,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
